--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\TestExcelUpdates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78563FA5-A5F3-4046-ACC2-83D1CFF6D7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC0A94E-135A-4E6B-82FA-F11A99D09377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{136E1505-BD54-4695-8EA8-2462FF375465}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="38700" windowHeight="15210" xr2:uid="{136E1505-BD54-4695-8EA8-2462FF375465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Test Table</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Mason</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Janitor</t>
   </si>
 </sst>
 </file>
@@ -172,8 +178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8636A882-908B-40ED-AD25-31F456F57665}" name="Table1" displayName="Table1" ref="B3:E8" totalsRowShown="0">
-  <autoFilter ref="B3:E8" xr:uid="{8636A882-908B-40ED-AD25-31F456F57665}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8636A882-908B-40ED-AD25-31F456F57665}" name="Table1" displayName="Table1" ref="B3:E9" totalsRowShown="0">
+  <autoFilter ref="B3:E9" xr:uid="{8636A882-908B-40ED-AD25-31F456F57665}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4F902F94-318F-45A9-BD9D-A9FF1A2BC71D}" name="Column 1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0229D870-88B3-47E0-85C1-70B6CBB1F17E}" name="Column 2"/>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EE5BD0-E7F9-4478-9292-1A86013E1F2E}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +608,20 @@
         <v>24444.55</v>
       </c>
     </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>46230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
